--- a/Coffee Sales Metrics.xlsx
+++ b/Coffee Sales Metrics.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbettadapura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E7C32BF1-A272-4FD3-AF72-449027F0DB71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065D1A54-654E-40B3-B99C-92176E565542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoffeeShopDataset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
@@ -603,9 +616,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -643,7 +656,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -749,7 +762,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -891,29 +904,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" outlineLevelRow="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="21" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.35546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -927,7 +940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -942,7 +955,7 @@
         <v>20094.189999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -957,7 +970,7 @@
         <v>77352.62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -978,7 +991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1000,7 +1013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1022,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1044,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1059,7 +1072,7 @@
         <v>193063.27000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1074,7 +1087,7 @@
         <v>219292.48</v>
       </c>
     </row>
-    <row r="10" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1089,7 +1102,7 @@
         <v>236850.57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1104,7 +1117,7 @@
         <v>254447.53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1119,7 +1132,7 @@
         <v>270592.88</v>
       </c>
     </row>
-    <row r="13" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1134,7 +1147,7 @@
         <v>287147.99</v>
       </c>
     </row>
-    <row r="14" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1149,7 +1162,7 @@
         <v>312072.49</v>
       </c>
     </row>
-    <row r="15" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +1177,7 @@
         <v>333900.39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1179,7 +1192,7 @@
         <v>368139.27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1207,7 @@
         <v>387066.01</v>
       </c>
     </row>
-    <row r="18" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1209,7 +1222,7 @@
         <v>401839.05</v>
       </c>
     </row>
-    <row r="19" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1224,7 +1237,7 @@
         <v>417419.48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1239,7 +1252,7 @@
         <v>434927.88999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1254,7 +1267,7 @@
         <v>451144.16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1269,7 +1282,7 @@
         <v>467472.87999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1284,7 +1297,7 @@
         <v>484886.81999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1299,7 +1312,7 @@
         <v>502037.66</v>
       </c>
     </row>
-    <row r="25" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1314,7 +1327,7 @@
         <v>517398.11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1329,7 +1342,7 @@
         <v>532779.92999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1344,7 +1357,7 @@
         <v>556167.96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1359,7 +1372,7 @@
         <v>571704.36</v>
       </c>
     </row>
-    <row r="29" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1374,7 +1387,7 @@
         <v>587444.49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1389,7 +1402,7 @@
         <v>603238.36</v>
       </c>
     </row>
-    <row r="31" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1404,7 +1417,7 @@
         <v>646199.27</v>
       </c>
     </row>
-    <row r="32" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1419,7 +1432,7 @@
         <v>663888.03</v>
       </c>
     </row>
-    <row r="33" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1434,7 +1447,7 @@
         <v>683242.26</v>
       </c>
     </row>
-    <row r="34" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1449,7 +1462,7 @@
         <v>701364.78</v>
       </c>
     </row>
-    <row r="35" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1464,7 +1477,7 @@
         <v>719559.52</v>
       </c>
     </row>
-    <row r="36" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1479,7 +1492,7 @@
         <v>746537.86</v>
       </c>
     </row>
-    <row r="37" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1494,7 +1507,7 @@
         <v>772080.9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1509,7 +1522,7 @@
         <v>810721.83000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1524,7 +1537,7 @@
         <v>827359.45000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1539,7 +1552,7 @@
         <v>873398.94000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1554,7 +1567,7 @@
         <v>894442.33000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
@@ -1563,7 +1576,7 @@
         <v>894442.33000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1578,7 +1591,7 @@
         <v>5617.26</v>
       </c>
     </row>
-    <row r="44" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1593,7 +1606,7 @@
         <v>22016.269999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1608,7 +1621,7 @@
         <v>26254.829999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1623,7 +1636,7 @@
         <v>35173.14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1638,7 +1651,7 @@
         <v>40165.14</v>
       </c>
     </row>
-    <row r="48" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1653,7 +1666,7 @@
         <v>45088.75</v>
       </c>
     </row>
-    <row r="49" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1668,7 +1681,7 @@
         <v>50206.87</v>
       </c>
     </row>
-    <row r="50" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1683,7 +1696,7 @@
         <v>56826.990000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1698,7 +1711,7 @@
         <v>61847.090000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1713,7 +1726,7 @@
         <v>65908.98000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1728,7 +1741,7 @@
         <v>70326.150000000009</v>
       </c>
     </row>
-    <row r="54" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1743,7 +1756,7 @@
         <v>74485.400000000009</v>
       </c>
     </row>
-    <row r="55" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1758,7 +1771,7 @@
         <v>80938.98000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1773,7 +1786,7 @@
         <v>86111.71</v>
       </c>
     </row>
-    <row r="57" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1788,7 +1801,7 @@
         <v>100438.58</v>
       </c>
     </row>
-    <row r="58" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1803,7 +1816,7 @@
         <v>105209.82</v>
       </c>
     </row>
-    <row r="59" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1818,7 +1831,7 @@
         <v>109654.74</v>
       </c>
     </row>
-    <row r="60" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -1833,7 +1846,7 @@
         <v>113859.39</v>
       </c>
     </row>
-    <row r="61" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1848,7 +1861,7 @@
         <v>117412.09</v>
       </c>
     </row>
-    <row r="62" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -1863,7 +1876,7 @@
         <v>121856.75</v>
       </c>
     </row>
-    <row r="63" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -1878,7 +1891,7 @@
         <v>126234.49</v>
       </c>
     </row>
-    <row r="64" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -1893,7 +1906,7 @@
         <v>130991.18000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -1908,7 +1921,7 @@
         <v>134431.87</v>
       </c>
     </row>
-    <row r="66" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1923,7 +1936,7 @@
         <v>138306.32</v>
       </c>
     </row>
-    <row r="67" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -1938,7 +1951,7 @@
         <v>142511.94</v>
       </c>
     </row>
-    <row r="68" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -1953,7 +1966,7 @@
         <v>149360.15</v>
       </c>
     </row>
-    <row r="69" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -1968,7 +1981,7 @@
         <v>153290.56</v>
       </c>
     </row>
-    <row r="70" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -1983,7 +1996,7 @@
         <v>157426.60999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -1998,7 +2011,7 @@
         <v>161343.79999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -2013,7 +2026,7 @@
         <v>169659.84999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -2028,7 +2041,7 @@
         <v>174204.46999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -2043,7 +2056,7 @@
         <v>180037.69999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -2058,7 +2071,7 @@
         <v>185893.03999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -2073,7 +2086,7 @@
         <v>191077.63999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -2088,7 +2101,7 @@
         <v>198234.72999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -2103,7 +2116,7 @@
         <v>205899.81999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2118,7 +2131,7 @@
         <v>217545.59999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -2133,7 +2146,7 @@
         <v>222272.05</v>
       </c>
     </row>
-    <row r="81" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -2148,7 +2161,7 @@
         <v>235020.77</v>
       </c>
     </row>
-    <row r="82" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -2163,7 +2176,7 @@
         <v>240561.05</v>
       </c>
     </row>
-    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>7</v>
       </c>
@@ -2172,7 +2185,7 @@
         <v>240561.05</v>
       </c>
     </row>
-    <row r="84" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -2187,7 +2200,7 @@
         <v>27023.35</v>
       </c>
     </row>
-    <row r="85" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -2202,7 +2215,7 @@
         <v>109789.42000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -2217,7 +2230,7 @@
         <v>133592.76</v>
       </c>
     </row>
-    <row r="87" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -2232,7 +2245,7 @@
         <v>191814.28</v>
       </c>
     </row>
-    <row r="88" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2247,7 +2260,7 @@
         <v>217776.6</v>
       </c>
     </row>
-    <row r="89" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -2262,7 +2275,7 @@
         <v>241677.92</v>
       </c>
     </row>
-    <row r="90" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -2277,7 +2290,7 @@
         <v>270124.84000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -2292,7 +2305,7 @@
         <v>302338.83</v>
       </c>
     </row>
-    <row r="92" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -2307,7 +2320,7 @@
         <v>326208</v>
       </c>
     </row>
-    <row r="93" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -2322,7 +2335,7 @@
         <v>347516.59</v>
       </c>
     </row>
-    <row r="94" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -2337,7 +2350,7 @@
         <v>369679.71</v>
       </c>
     </row>
-    <row r="95" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -2352,7 +2365,7 @@
         <v>393745.91000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -2367,7 +2380,7 @@
         <v>428779.97000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -2382,7 +2395,7 @@
         <v>456152.02</v>
       </c>
     </row>
-    <row r="98" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -2397,7 +2410,7 @@
         <v>502350.86</v>
       </c>
     </row>
-    <row r="99" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2412,7 +2425,7 @@
         <v>528227.41</v>
       </c>
     </row>
-    <row r="100" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -2427,7 +2440,7 @@
         <v>550916.42000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -2442,7 +2455,7 @@
         <v>573816.15</v>
       </c>
     </row>
-    <row r="102" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -2457,7 +2470,7 @@
         <v>596611.87</v>
       </c>
     </row>
-    <row r="103" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -2472,7 +2485,7 @@
         <v>620530.43000000005</v>
       </c>
     </row>
-    <row r="104" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -2487,7 +2500,7 @@
         <v>644287.79</v>
       </c>
     </row>
-    <row r="105" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -2502,7 +2515,7 @@
         <v>670479.37</v>
       </c>
     </row>
-    <row r="106" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -2517,7 +2530,7 @@
         <v>694207.14</v>
       </c>
     </row>
-    <row r="107" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -2532,7 +2545,7 @@
         <v>715346.66</v>
       </c>
     </row>
-    <row r="108" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -2547,7 +2560,7 @@
         <v>738095.87</v>
       </c>
     </row>
-    <row r="109" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -2562,7 +2575,7 @@
         <v>769620.73</v>
       </c>
     </row>
-    <row r="110" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -2577,7 +2590,7 @@
         <v>791554.03</v>
       </c>
     </row>
-    <row r="111" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -2592,7 +2605,7 @@
         <v>813680.55</v>
       </c>
     </row>
-    <row r="112" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -2607,7 +2620,7 @@
         <v>834945.21000000008</v>
       </c>
     </row>
-    <row r="113" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -2622,7 +2635,7 @@
         <v>901505.21000000008</v>
       </c>
     </row>
-    <row r="114" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -2637,7 +2650,7 @@
         <v>925212.75000000012</v>
       </c>
     </row>
-    <row r="115" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -2652,7 +2665,7 @@
         <v>951479.14000000013</v>
       </c>
     </row>
-    <row r="116" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -2667,7 +2680,7 @@
         <v>977606.90000000014</v>
       </c>
     </row>
-    <row r="117" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -2682,7 +2695,7 @@
         <v>1003317.0700000002</v>
       </c>
     </row>
-    <row r="118" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -2697,7 +2710,7 @@
         <v>1038241.6600000001</v>
       </c>
     </row>
-    <row r="119" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -2712,7 +2725,7 @@
         <v>1078996.83</v>
       </c>
     </row>
-    <row r="120" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -2727,7 +2740,7 @@
         <v>1135900.3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -2742,7 +2755,7 @@
         <v>1160449.31</v>
       </c>
     </row>
-    <row r="122" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -2757,7 +2770,7 @@
         <v>1220933.01</v>
       </c>
     </row>
-    <row r="123" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -2772,7 +2785,7 @@
         <v>1249593.8800000001</v>
       </c>
     </row>
-    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
         <v>8</v>
       </c>
@@ -2781,7 +2794,7 @@
         <v>1249593.8800000001</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
         <v>9</v>
       </c>
